--- a/DatasetDescription.xlsx
+++ b/DatasetDescription.xlsx
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>#Continuous</t>
   </si>
   <si>
     <t>#Nominal</t>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>albert</t>
+  </si>
+  <si>
+    <t>#Numeric</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,12 +491,13 @@
     <col min="2" max="2" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -505,31 +509,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -537,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -545,9 +549,7 @@
       <c r="D2" s="1">
         <v>36</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>2238</v>
@@ -556,9 +558,11 @@
         <v>958</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -566,7 +570,7 @@
         <v>1111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>192</v>
@@ -574,11 +578,11 @@
       <c r="D3" s="1">
         <v>38</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>35000</v>
@@ -587,10 +591,10 @@
         <v>15000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -599,7 +603,7 @@
         <v>1120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -607,10 +611,10 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="1">
         <v>12734</v>
       </c>
@@ -618,10 +622,10 @@
         <v>6277</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -630,7 +634,7 @@
         <v>1573</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>5000</v>
@@ -638,9 +642,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>4900</v>
@@ -649,9 +651,11 @@
         <v>2100</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -659,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -667,12 +671,10 @@
       <c r="D6" s="1">
         <v>22</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>5443</v>
       </c>
@@ -680,11 +682,13 @@
         <v>2681</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -692,7 +696,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>21</v>
@@ -700,11 +704,11 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>2</v>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>7292</v>
@@ -713,10 +717,10 @@
         <v>3593</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -725,7 +729,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -733,12 +737,10 @@
       <c r="D8" s="1">
         <v>13</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>670</v>
       </c>
@@ -746,9 +748,11 @@
         <v>330</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -756,7 +760,7 @@
         <v>741</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -764,16 +768,16 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -781,7 +785,7 @@
         <v>959</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -789,9 +793,7 @@
       <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>8683</v>
@@ -800,10 +802,43 @@
         <v>4277</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
       <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>41147</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>283493.33333333331</v>
+      </c>
+      <c r="H11" s="1">
+        <v>141746.66666666666</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:I14">

--- a/DatasetDescription.xlsx
+++ b/DatasetDescription.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="6680" yWindow="3340" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,11 +826,11 @@
         <v>7</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>283493.33333333331</v>
-      </c>
-      <c r="H11" s="1">
-        <v>141746.66666666666</v>
+      <c r="G11" s="3">
+        <v>284910</v>
+      </c>
+      <c r="H11" s="3">
+        <v>140330</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>13</v>

--- a/DatasetDescription.xlsx
+++ b/DatasetDescription.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="3340" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>

--- a/DatasetDescription.xlsx
+++ b/DatasetDescription.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DatasetDescription.xlsx
+++ b/DatasetDescription.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="5100" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>#Numeric</t>
+  </si>
+  <si>
+    <t>class:</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -622,7 +625,7 @@
         <v>6277</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>

--- a/DatasetDescription.xlsx
+++ b/DatasetDescription.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="5100" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +204,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,8 +779,12 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="6">
+        <v>686</v>
+      </c>
+      <c r="H9" s="6">
+        <v>338</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
@@ -829,10 +839,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>284910</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>140330</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -842,6 +852,12 @@
         <v>2</v>
       </c>
       <c r="K11" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I14">
